--- a/Capstone_regPrecise/nodes_G60.xlsx
+++ b/Capstone_regPrecise/nodes_G60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="586">
   <si>
     <t>from</t>
   </si>
@@ -251,37 +251,1525 @@
     <t>nsrR</t>
   </si>
   <si>
+    <t>hmp</t>
+  </si>
+  <si>
+    <t>cysH</t>
+  </si>
+  <si>
     <t>sat</t>
   </si>
   <si>
+    <t>cysP</t>
+  </si>
+  <si>
+    <t>cysC</t>
+  </si>
+  <si>
+    <t>822063</t>
+  </si>
+  <si>
+    <t>sirB</t>
+  </si>
+  <si>
+    <t>sirC</t>
+  </si>
+  <si>
+    <t>cysJ</t>
+  </si>
+  <si>
+    <t>yvgQ</t>
+  </si>
+  <si>
+    <t>yhcL</t>
+  </si>
+  <si>
+    <t>cysK</t>
+  </si>
+  <si>
+    <t>znuC</t>
+  </si>
+  <si>
+    <t>znuB</t>
+  </si>
+  <si>
     <t>zur</t>
   </si>
   <si>
+    <t>zinT</t>
+  </si>
+  <si>
+    <t>yciC</t>
+  </si>
+  <si>
+    <t>rpsN2</t>
+  </si>
+  <si>
+    <t>adcA</t>
+  </si>
+  <si>
+    <t>adcC</t>
+  </si>
+  <si>
+    <t>adcB</t>
+  </si>
+  <si>
+    <t>822583</t>
+  </si>
+  <si>
+    <t>xylA</t>
+  </si>
+  <si>
+    <t>xylB</t>
+  </si>
+  <si>
+    <t>galM</t>
+  </si>
+  <si>
+    <t>824714</t>
+  </si>
+  <si>
+    <t>824713</t>
+  </si>
+  <si>
+    <t>824712</t>
+  </si>
+  <si>
+    <t>treA</t>
+  </si>
+  <si>
+    <t>treR</t>
+  </si>
+  <si>
+    <t>treP</t>
+  </si>
+  <si>
+    <t>ndh2</t>
+  </si>
+  <si>
+    <t>ldh</t>
+  </si>
+  <si>
+    <t>noxE</t>
+  </si>
+  <si>
+    <t>zosA</t>
+  </si>
+  <si>
+    <t>perR</t>
+  </si>
+  <si>
+    <t>hemA</t>
+  </si>
+  <si>
+    <t>hemX</t>
+  </si>
+  <si>
+    <t>hemC</t>
+  </si>
+  <si>
+    <t>hemD</t>
+  </si>
+  <si>
     <t>hemB</t>
   </si>
   <si>
+    <t>hemL</t>
+  </si>
+  <si>
+    <t>fur</t>
+  </si>
+  <si>
+    <t>nifS</t>
+  </si>
+  <si>
+    <t>niaR</t>
+  </si>
+  <si>
+    <t>nadB</t>
+  </si>
+  <si>
+    <t>nadC</t>
+  </si>
+  <si>
+    <t>nadA</t>
+  </si>
+  <si>
+    <t>niaY</t>
+  </si>
+  <si>
+    <t>mntA</t>
+  </si>
+  <si>
+    <t>mntB</t>
+  </si>
+  <si>
+    <t>mntC</t>
+  </si>
+  <si>
+    <t>mntD</t>
+  </si>
+  <si>
+    <t>licB</t>
+  </si>
+  <si>
+    <t>licC</t>
+  </si>
+  <si>
+    <t>licA</t>
+  </si>
+  <si>
+    <t>licH</t>
+  </si>
+  <si>
+    <t>licR</t>
+  </si>
+  <si>
+    <t>yqjW</t>
+  </si>
+  <si>
+    <t>yneB</t>
+  </si>
+  <si>
+    <t>uvrB</t>
+  </si>
+  <si>
+    <t>uvrA</t>
+  </si>
+  <si>
+    <t>ruvA</t>
+  </si>
+  <si>
+    <t>ruvB</t>
+  </si>
+  <si>
+    <t>recA</t>
+  </si>
+  <si>
+    <t>parE</t>
+  </si>
+  <si>
+    <t>parC</t>
+  </si>
+  <si>
+    <t>lexA</t>
+  </si>
+  <si>
     <t>ytsJ</t>
   </si>
   <si>
+    <t>ganO</t>
+  </si>
+  <si>
+    <t>ganP</t>
+  </si>
+  <si>
+    <t>ganQ</t>
+  </si>
+  <si>
+    <t>ganB</t>
+  </si>
+  <si>
+    <t>ganA</t>
+  </si>
+  <si>
+    <t>htpG</t>
+  </si>
+  <si>
+    <t>hrcA</t>
+  </si>
+  <si>
+    <t>grpE</t>
+  </si>
+  <si>
+    <t>dnaK</t>
+  </si>
+  <si>
+    <t>groES</t>
+  </si>
+  <si>
+    <t>groEL</t>
+  </si>
+  <si>
+    <t>glvC</t>
+  </si>
+  <si>
+    <t>glvA</t>
+  </si>
+  <si>
+    <t>glvR2</t>
+  </si>
+  <si>
+    <t>yxeB</t>
+  </si>
+  <si>
+    <t>yumC</t>
+  </si>
+  <si>
+    <t>ykuN</t>
+  </si>
+  <si>
+    <t>yfhC</t>
+  </si>
+  <si>
+    <t>yclN</t>
+  </si>
+  <si>
+    <t>yclO</t>
+  </si>
+  <si>
+    <t>yclP</t>
+  </si>
+  <si>
+    <t>yclQ</t>
+  </si>
+  <si>
+    <t>btr</t>
+  </si>
+  <si>
+    <t>fhuB</t>
+  </si>
+  <si>
+    <t>fhuG</t>
+  </si>
+  <si>
+    <t>fhuC</t>
+  </si>
+  <si>
+    <t>feuA</t>
+  </si>
+  <si>
     <t>feuB</t>
   </si>
   <si>
-    <t>ldh</t>
+    <t>feuC</t>
+  </si>
+  <si>
+    <t>besA</t>
+  </si>
+  <si>
+    <t>rhbC</t>
+  </si>
+  <si>
+    <t>823435</t>
+  </si>
+  <si>
+    <t>823436</t>
+  </si>
+  <si>
+    <t>823437</t>
+  </si>
+  <si>
+    <t>ycgT</t>
+  </si>
+  <si>
+    <t>yetG</t>
+  </si>
+  <si>
+    <t>cggR</t>
+  </si>
+  <si>
+    <t>gapA</t>
+  </si>
+  <si>
+    <t>pgk</t>
+  </si>
+  <si>
+    <t>tpiA</t>
+  </si>
+  <si>
+    <t>pgm</t>
+  </si>
+  <si>
+    <t>eno</t>
+  </si>
+  <si>
+    <t>yhfT</t>
+  </si>
+  <si>
+    <t>yhfS</t>
+  </si>
+  <si>
+    <t>bioY2</t>
+  </si>
+  <si>
+    <t>argC</t>
+  </si>
+  <si>
+    <t>argJ</t>
+  </si>
+  <si>
+    <t>argB</t>
+  </si>
+  <si>
+    <t>argD</t>
+  </si>
+  <si>
+    <t>carA</t>
+  </si>
+  <si>
+    <t>carB</t>
+  </si>
+  <si>
+    <t>argF</t>
+  </si>
+  <si>
+    <t>argG</t>
+  </si>
+  <si>
+    <t>argH</t>
+  </si>
+  <si>
+    <t>mhqR</t>
+  </si>
+  <si>
+    <t>ywrF</t>
+  </si>
+  <si>
+    <t>mhqO</t>
+  </si>
+  <si>
+    <t>purR</t>
+  </si>
+  <si>
+    <t>yabJ</t>
+  </si>
+  <si>
+    <t>purE</t>
+  </si>
+  <si>
+    <t>purK</t>
+  </si>
+  <si>
+    <t>purB</t>
+  </si>
+  <si>
+    <t>purC</t>
+  </si>
+  <si>
+    <t>purS</t>
+  </si>
+  <si>
+    <t>purQ</t>
+  </si>
+  <si>
+    <t>purL</t>
+  </si>
+  <si>
+    <t>purF</t>
+  </si>
+  <si>
+    <t>purM</t>
+  </si>
+  <si>
+    <t>purN</t>
+  </si>
+  <si>
+    <t>purH</t>
+  </si>
+  <si>
+    <t>purD</t>
+  </si>
+  <si>
+    <t>xpt</t>
+  </si>
+  <si>
+    <t>822925</t>
+  </si>
+  <si>
+    <t>guaC</t>
+  </si>
+  <si>
+    <t>glyA</t>
+  </si>
+  <si>
+    <t>pbuG</t>
+  </si>
+  <si>
+    <t>purA</t>
   </si>
   <si>
     <t>gcvT</t>
   </si>
   <si>
+    <t>gcvPA</t>
+  </si>
+  <si>
+    <t>gcvPB</t>
+  </si>
+  <si>
+    <t>824368</t>
+  </si>
+  <si>
+    <t>824367</t>
+  </si>
+  <si>
+    <t>824366</t>
+  </si>
+  <si>
+    <t>yisV</t>
+  </si>
+  <si>
+    <t>yisU</t>
+  </si>
+  <si>
+    <t>lcfA</t>
+  </si>
+  <si>
+    <t>yjmC</t>
+  </si>
+  <si>
+    <t>yjmD</t>
+  </si>
+  <si>
+    <t>uxuA</t>
+  </si>
+  <si>
+    <t>yjmF</t>
+  </si>
+  <si>
+    <t>yqgY</t>
+  </si>
+  <si>
+    <t>yqgW</t>
+  </si>
+  <si>
+    <t>gmuD</t>
+  </si>
+  <si>
+    <t>gmuE</t>
+  </si>
+  <si>
+    <t>821768</t>
+  </si>
+  <si>
+    <t>821769</t>
+  </si>
+  <si>
+    <t>825523</t>
+  </si>
+  <si>
+    <t>scoA</t>
+  </si>
+  <si>
+    <t>sdcS</t>
+  </si>
+  <si>
+    <t>iolA</t>
+  </si>
+  <si>
+    <t>iolB</t>
+  </si>
+  <si>
+    <t>iolC</t>
+  </si>
+  <si>
+    <t>iolD</t>
+  </si>
+  <si>
+    <t>iolE</t>
+  </si>
+  <si>
+    <t>iolG</t>
+  </si>
+  <si>
     <t>cycB</t>
   </si>
   <si>
+    <t>yvfO</t>
+  </si>
+  <si>
+    <t>araF</t>
+  </si>
+  <si>
+    <t>araG</t>
+  </si>
+  <si>
+    <t>araH</t>
+  </si>
+  <si>
+    <t>dapA</t>
+  </si>
+  <si>
+    <t>eutG</t>
+  </si>
+  <si>
+    <t>kdgT</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>pdxA</t>
+  </si>
+  <si>
+    <t>sigL</t>
+  </si>
+  <si>
+    <t>ylbP</t>
+  </si>
+  <si>
+    <t>citS</t>
+  </si>
+  <si>
+    <t>citT</t>
+  </si>
+  <si>
+    <t>msmX</t>
+  </si>
+  <si>
+    <t>yqgX</t>
+  </si>
+  <si>
+    <t>tctC</t>
+  </si>
+  <si>
+    <t>tctB</t>
+  </si>
+  <si>
+    <t>tctA</t>
+  </si>
+  <si>
+    <t>citMII</t>
+  </si>
+  <si>
+    <t>yngJ</t>
+  </si>
+  <si>
+    <t>yngH</t>
+  </si>
+  <si>
+    <t>yngHB</t>
+  </si>
+  <si>
+    <t>yngF</t>
+  </si>
+  <si>
+    <t>yngE</t>
+  </si>
+  <si>
+    <t>ABC0302</t>
+  </si>
+  <si>
+    <t>xsa</t>
+  </si>
+  <si>
+    <t>ywcB</t>
+  </si>
+  <si>
+    <t>ywcA</t>
+  </si>
+  <si>
+    <t>lctP</t>
+  </si>
+  <si>
+    <t>lutA</t>
+  </si>
+  <si>
+    <t>lutB</t>
+  </si>
+  <si>
+    <t>lutC</t>
+  </si>
+  <si>
+    <t>acsA</t>
+  </si>
+  <si>
+    <t>mmgD</t>
+  </si>
+  <si>
+    <t>mmgE</t>
+  </si>
+  <si>
+    <t>prpB</t>
+  </si>
+  <si>
+    <t>glpF</t>
+  </si>
+  <si>
+    <t>glpK</t>
+  </si>
+  <si>
+    <t>glvR</t>
+  </si>
+  <si>
+    <t>rbsR</t>
+  </si>
+  <si>
+    <t>rbsK</t>
+  </si>
+  <si>
+    <t>rbsD</t>
+  </si>
+  <si>
+    <t>rbsA</t>
+  </si>
+  <si>
+    <t>rbsC</t>
+  </si>
+  <si>
+    <t>rbsB</t>
+  </si>
+  <si>
+    <t>abf2</t>
+  </si>
+  <si>
+    <t>BH1876</t>
+  </si>
+  <si>
+    <t>abnB</t>
+  </si>
+  <si>
+    <t>citZ</t>
+  </si>
+  <si>
+    <t>icd</t>
+  </si>
+  <si>
+    <t>mdh</t>
+  </si>
+  <si>
+    <t>xynB</t>
+  </si>
+  <si>
+    <t>licT</t>
+  </si>
+  <si>
+    <t>bglP1</t>
+  </si>
+  <si>
+    <t>gntZ</t>
+  </si>
+  <si>
+    <t>kduI</t>
+  </si>
+  <si>
+    <t>sdhC</t>
+  </si>
+  <si>
+    <t>sdhA</t>
+  </si>
+  <si>
+    <t>sdhB</t>
+  </si>
+  <si>
+    <t>ysmA</t>
+  </si>
+  <si>
+    <t>rmgR</t>
+  </si>
+  <si>
+    <t>pta</t>
+  </si>
+  <si>
+    <t>apbA</t>
+  </si>
+  <si>
+    <t>BH2578</t>
+  </si>
+  <si>
+    <t>yllA</t>
+  </si>
+  <si>
+    <t>ABC3348</t>
+  </si>
+  <si>
+    <t>824846</t>
+  </si>
+  <si>
+    <t>824845</t>
+  </si>
+  <si>
+    <t>824844</t>
+  </si>
+  <si>
+    <t>odhA</t>
+  </si>
+  <si>
+    <t>odhB</t>
+  </si>
+  <si>
+    <t>galK</t>
+  </si>
+  <si>
+    <t>galT</t>
+  </si>
+  <si>
+    <t>ndk</t>
+  </si>
+  <si>
+    <t>melA</t>
+  </si>
+  <si>
+    <t>araL</t>
+  </si>
+  <si>
+    <t>araM</t>
+  </si>
+  <si>
+    <t>araD</t>
+  </si>
+  <si>
+    <t>araB</t>
+  </si>
+  <si>
+    <t>araA</t>
+  </si>
+  <si>
+    <t>lplB</t>
+  </si>
+  <si>
+    <t>lplC</t>
+  </si>
+  <si>
+    <t>ugpB</t>
+  </si>
+  <si>
+    <t>ytcQ</t>
+  </si>
+  <si>
+    <t>ytcP</t>
+  </si>
+  <si>
+    <t>gmuB</t>
+  </si>
+  <si>
+    <t>gmuC</t>
+  </si>
+  <si>
+    <t>821934</t>
+  </si>
+  <si>
+    <t>gntP</t>
+  </si>
+  <si>
     <t>tnrA</t>
   </si>
   <si>
+    <t>nrdI</t>
+  </si>
+  <si>
+    <t>nrdE</t>
+  </si>
+  <si>
+    <t>nrdF</t>
+  </si>
+  <si>
+    <t>ymaB</t>
+  </si>
+  <si>
+    <t>arcD</t>
+  </si>
+  <si>
+    <t>pucH</t>
+  </si>
+  <si>
+    <t>825229</t>
+  </si>
+  <si>
+    <t>glnQ</t>
+  </si>
+  <si>
+    <t>glnH</t>
+  </si>
+  <si>
+    <t>glnM</t>
+  </si>
+  <si>
+    <t>glnP</t>
+  </si>
+  <si>
+    <t>nasF</t>
+  </si>
+  <si>
+    <t>nasD</t>
+  </si>
+  <si>
+    <t>nasE</t>
+  </si>
+  <si>
+    <t>nasB</t>
+  </si>
+  <si>
+    <t>nasC</t>
+  </si>
+  <si>
+    <t>nasA</t>
+  </si>
+  <si>
+    <t>nrgA</t>
+  </si>
+  <si>
+    <t>825424</t>
+  </si>
+  <si>
+    <t>dpo3</t>
+  </si>
+  <si>
+    <t>gsiC</t>
+  </si>
+  <si>
+    <t>gsiD</t>
+  </si>
+  <si>
+    <t>appD</t>
+  </si>
+  <si>
+    <t>appF</t>
+  </si>
+  <si>
+    <t>gsiA</t>
+  </si>
+  <si>
+    <t>824594</t>
+  </si>
+  <si>
     <t>oppD</t>
   </si>
   <si>
+    <t>oppF</t>
+  </si>
+  <si>
+    <t>appB</t>
+  </si>
+  <si>
+    <t>oppC</t>
+  </si>
+  <si>
+    <t>oppA</t>
+  </si>
+  <si>
+    <t>appA</t>
+  </si>
+  <si>
+    <t>appC</t>
+  </si>
+  <si>
+    <t>825158</t>
+  </si>
+  <si>
+    <t>825155</t>
+  </si>
+  <si>
+    <t>825154</t>
+  </si>
+  <si>
+    <t>825153</t>
+  </si>
+  <si>
+    <t>825152</t>
+  </si>
+  <si>
+    <t>825530</t>
+  </si>
+  <si>
+    <t>825529</t>
+  </si>
+  <si>
+    <t>825245</t>
+  </si>
+  <si>
+    <t>825244</t>
+  </si>
+  <si>
+    <t>825243</t>
+  </si>
+  <si>
+    <t>pucA</t>
+  </si>
+  <si>
+    <t>pucB</t>
+  </si>
+  <si>
+    <t>pucC</t>
+  </si>
+  <si>
+    <t>pucD</t>
+  </si>
+  <si>
+    <t>pucE</t>
+  </si>
+  <si>
+    <t>yrbD</t>
+  </si>
+  <si>
+    <t>glnA2</t>
+  </si>
+  <si>
+    <t>hisZ</t>
+  </si>
+  <si>
+    <t>hisG</t>
+  </si>
+  <si>
+    <t>hisD</t>
+  </si>
+  <si>
+    <t>hisB</t>
+  </si>
+  <si>
+    <t>hisH</t>
+  </si>
+  <si>
+    <t>hisA</t>
+  </si>
+  <si>
+    <t>hisF</t>
+  </si>
+  <si>
+    <t>hisIE</t>
+  </si>
+  <si>
+    <t>yuiF</t>
+  </si>
+  <si>
+    <t>yqcK</t>
+  </si>
+  <si>
+    <t>arsR</t>
+  </si>
+  <si>
+    <t>aseR</t>
+  </si>
+  <si>
+    <t>aseA</t>
+  </si>
+  <si>
+    <t>arsC</t>
+  </si>
+  <si>
+    <t>czrA</t>
+  </si>
+  <si>
+    <t>czcD</t>
+  </si>
+  <si>
+    <t>sdpR</t>
+  </si>
+  <si>
+    <t>sdpI</t>
+  </si>
+  <si>
+    <t>rocD</t>
+  </si>
+  <si>
+    <t>rocR</t>
+  </si>
+  <si>
+    <t>bcd</t>
+  </si>
+  <si>
+    <t>lpdV</t>
+  </si>
+  <si>
+    <t>bkdAA</t>
+  </si>
+  <si>
+    <t>bkdAB</t>
+  </si>
+  <si>
+    <t>bkdB</t>
+  </si>
+  <si>
+    <t>gapB</t>
+  </si>
+  <si>
+    <t>pckA</t>
+  </si>
+  <si>
+    <t>Aflv_1606</t>
+  </si>
+  <si>
+    <t>fadN</t>
+  </si>
+  <si>
+    <t>fadA</t>
+  </si>
+  <si>
+    <t>fadE</t>
+  </si>
+  <si>
+    <t>fadF</t>
+  </si>
+  <si>
+    <t>mmgA</t>
+  </si>
+  <si>
+    <t>mmgB</t>
+  </si>
+  <si>
+    <t>mmgC</t>
+  </si>
+  <si>
+    <t>fadR</t>
+  </si>
+  <si>
+    <t>fadB</t>
+  </si>
+  <si>
+    <t>etfB</t>
+  </si>
+  <si>
+    <t>etfA</t>
+  </si>
+  <si>
+    <t>citA</t>
+  </si>
+  <si>
+    <t>citR</t>
+  </si>
+  <si>
+    <t>yteP</t>
+  </si>
+  <si>
+    <t>822611</t>
+  </si>
+  <si>
+    <t>rhiN2</t>
+  </si>
+  <si>
+    <t>yteS</t>
+  </si>
+  <si>
+    <t>822615</t>
+  </si>
+  <si>
+    <t>yteT</t>
+  </si>
+  <si>
+    <t>uxaA</t>
+  </si>
+  <si>
+    <t>uxaB</t>
+  </si>
+  <si>
+    <t>gltO</t>
+  </si>
+  <si>
+    <t>gamR</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>825303</t>
+  </si>
+  <si>
+    <t>823447</t>
+  </si>
+  <si>
+    <t>oppB</t>
+  </si>
+  <si>
+    <t>ytcI</t>
+  </si>
+  <si>
+    <t>iolJ</t>
+  </si>
+  <si>
+    <t>iolX</t>
+  </si>
+  <si>
+    <t>821881</t>
+  </si>
+  <si>
+    <t>iolR</t>
+  </si>
+  <si>
+    <t>gltC2</t>
+  </si>
+  <si>
+    <t>gdhA</t>
+  </si>
+  <si>
+    <t>nagA</t>
+  </si>
+  <si>
+    <t>nagB</t>
+  </si>
+  <si>
+    <t>lutP</t>
+  </si>
+  <si>
+    <t>bcrA</t>
+  </si>
+  <si>
+    <t>bcrB</t>
+  </si>
+  <si>
+    <t>adaA</t>
+  </si>
+  <si>
+    <t>adaB</t>
+  </si>
+  <si>
+    <t>alkA</t>
+  </si>
+  <si>
+    <t>kdgD</t>
+  </si>
+  <si>
+    <t>kgsD</t>
+  </si>
+  <si>
+    <t>tctB_Gud</t>
+  </si>
+  <si>
+    <t>tctA_Gud</t>
+  </si>
+  <si>
+    <t>tctC_Gud</t>
+  </si>
+  <si>
+    <t>gudR</t>
+  </si>
+  <si>
+    <t>ABC0466</t>
+  </si>
+  <si>
+    <t>des</t>
+  </si>
+  <si>
+    <t>desK</t>
+  </si>
+  <si>
+    <t>desR</t>
+  </si>
+  <si>
+    <t>fabHA</t>
+  </si>
+  <si>
+    <t>fabF</t>
+  </si>
+  <si>
+    <t>fapR</t>
+  </si>
+  <si>
+    <t>plsX</t>
+  </si>
+  <si>
+    <t>fabD</t>
+  </si>
+  <si>
+    <t>fabG</t>
+  </si>
+  <si>
+    <t>acpA</t>
+  </si>
+  <si>
+    <t>fabI</t>
+  </si>
+  <si>
+    <t>fruR</t>
+  </si>
+  <si>
+    <t>fruK</t>
+  </si>
+  <si>
+    <t>fruA</t>
+  </si>
+  <si>
+    <t>clpP</t>
+  </si>
+  <si>
+    <t>clpE</t>
+  </si>
+  <si>
+    <t>ctsR</t>
+  </si>
+  <si>
+    <t>mcsA</t>
+  </si>
+  <si>
+    <t>mcsB</t>
+  </si>
+  <si>
+    <t>clpC</t>
+  </si>
+  <si>
+    <t>radA</t>
+  </si>
+  <si>
+    <t>yacK</t>
+  </si>
+  <si>
+    <t>copA</t>
+  </si>
+  <si>
+    <t>ydhK</t>
+  </si>
+  <si>
+    <t>copZ</t>
+  </si>
+  <si>
     <t>citM</t>
+  </si>
+  <si>
+    <t>822233</t>
+  </si>
+  <si>
+    <t>yybR</t>
+  </si>
+  <si>
+    <t>ydfE</t>
+  </si>
+  <si>
+    <t>825212</t>
+  </si>
+  <si>
+    <t>ydfF</t>
+  </si>
+  <si>
+    <t>yybA</t>
+  </si>
+  <si>
+    <t>paiA</t>
+  </si>
+  <si>
+    <t>ABC0420</t>
+  </si>
+  <si>
+    <t>gbsA</t>
+  </si>
+  <si>
+    <t>gbsB</t>
+  </si>
+  <si>
+    <t>chiA</t>
+  </si>
+  <si>
+    <t>ywbA</t>
+  </si>
+  <si>
+    <t>ywbB</t>
+  </si>
+  <si>
+    <t>ywbC</t>
+  </si>
+  <si>
+    <t>822092</t>
+  </si>
+  <si>
+    <t>uxmD</t>
+  </si>
+  <si>
+    <t>uxuB</t>
+  </si>
+  <si>
+    <t>uxuR2</t>
+  </si>
+  <si>
+    <t>uxuP2</t>
+  </si>
+  <si>
+    <t>uxuQ2</t>
+  </si>
+  <si>
+    <t>uxuM2</t>
+  </si>
+  <si>
+    <t>uxuR</t>
+  </si>
+  <si>
+    <t>ybcL</t>
+  </si>
+  <si>
+    <t>ybzH</t>
+  </si>
+  <si>
+    <t>liaI</t>
+  </si>
+  <si>
+    <t>liaH</t>
+  </si>
+  <si>
+    <t>liaF</t>
+  </si>
+  <si>
+    <t>liaS</t>
+  </si>
+  <si>
+    <t>liaR</t>
+  </si>
+  <si>
+    <t>yvcR</t>
+  </si>
+  <si>
+    <t>yvcS</t>
+  </si>
+  <si>
+    <t>ybfI</t>
+  </si>
+  <si>
+    <t>PF01619</t>
+  </si>
+  <si>
+    <t>821700</t>
+  </si>
+  <si>
+    <t>malE</t>
+  </si>
+  <si>
+    <t>malF</t>
+  </si>
+  <si>
+    <t>malG</t>
+  </si>
+  <si>
+    <t>malR2</t>
+  </si>
+  <si>
+    <t>nplT</t>
+  </si>
+  <si>
+    <t>BH0413</t>
+  </si>
+  <si>
+    <t>sacH</t>
+  </si>
+  <si>
+    <t>sacG</t>
+  </si>
+  <si>
+    <t>sacF</t>
+  </si>
+  <si>
+    <t>sacC</t>
+  </si>
+  <si>
+    <t>cscA</t>
+  </si>
+  <si>
+    <t>gntR2</t>
+  </si>
+  <si>
+    <t>824856</t>
+  </si>
+  <si>
+    <t>824855</t>
+  </si>
+  <si>
+    <t>824854</t>
+  </si>
+  <si>
+    <t>PF01380</t>
+  </si>
+  <si>
+    <t>824852</t>
+  </si>
+  <si>
+    <t>kdgK</t>
+  </si>
+  <si>
+    <t>PF00215</t>
+  </si>
+  <si>
+    <t>uxuP</t>
+  </si>
+  <si>
+    <t>uxuQ</t>
+  </si>
+  <si>
+    <t>uxuM</t>
+  </si>
+  <si>
+    <t>aguA</t>
+  </si>
+  <si>
+    <t>BH1247</t>
+  </si>
+  <si>
+    <t>ABC1574</t>
+  </si>
+  <si>
+    <t>BH1249</t>
+  </si>
+  <si>
+    <t>BH1248</t>
+  </si>
+  <si>
+    <t>ABC0797</t>
+  </si>
+  <si>
+    <t>scrB</t>
+  </si>
+  <si>
+    <t>scrA</t>
+  </si>
+  <si>
+    <t>msmE</t>
+  </si>
+  <si>
+    <t>msmF</t>
+  </si>
+  <si>
+    <t>msmG</t>
+  </si>
+  <si>
+    <t>ABC3919</t>
+  </si>
+  <si>
+    <t>ABC3917</t>
+  </si>
+  <si>
+    <t>ABC3916</t>
+  </si>
+  <si>
+    <t>ABC3915</t>
+  </si>
+  <si>
+    <t>lp_2743</t>
+  </si>
+  <si>
+    <t>lp_2744</t>
+  </si>
+  <si>
+    <t>BH0652</t>
+  </si>
+  <si>
+    <t>BH0653</t>
+  </si>
+  <si>
+    <t>ABC1168</t>
+  </si>
+  <si>
+    <t>gntT</t>
+  </si>
+  <si>
+    <t>BH2649</t>
+  </si>
+  <si>
+    <t>824630</t>
+  </si>
+  <si>
+    <t>yhcF2</t>
+  </si>
+  <si>
+    <t>BH2648</t>
+  </si>
+  <si>
+    <t>BH2650</t>
+  </si>
+  <si>
+    <t>pdxS</t>
+  </si>
+  <si>
+    <t>pdxT</t>
+  </si>
+  <si>
+    <t>garR</t>
+  </si>
+  <si>
+    <t>garD2</t>
+  </si>
+  <si>
+    <t>tctC_Gar</t>
+  </si>
+  <si>
+    <t>tctB_Gar</t>
+  </si>
+  <si>
+    <t>tctA_Gar</t>
   </si>
 </sst>
 </file>
@@ -353,15 +1841,15 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B4" t="e">
-        <v>#N/A</v>
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -369,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -377,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -385,7 +1873,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -393,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -401,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -409,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -417,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
@@ -425,7 +1913,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -433,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -441,23 +1929,23 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B16" t="e">
-        <v>#N/A</v>
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -465,7 +1953,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -473,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -481,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -489,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -497,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -505,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -513,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -521,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -529,151 +2017,151 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B28" t="e">
-        <v>#N/A</v>
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="e">
-        <v>#N/A</v>
+      <c r="B29" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" t="e">
-        <v>#N/A</v>
+      <c r="B30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" t="e">
-        <v>#N/A</v>
+      <c r="B31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="e">
-        <v>#N/A</v>
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" t="e">
-        <v>#N/A</v>
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="e">
-        <v>#N/A</v>
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B35" t="e">
-        <v>#N/A</v>
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="e">
-        <v>#N/A</v>
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="e">
-        <v>#N/A</v>
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B39" t="e">
-        <v>#N/A</v>
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="e">
-        <v>#N/A</v>
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B43" t="e">
-        <v>#N/A</v>
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -681,7 +2169,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -689,7 +2177,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -697,207 +2185,207 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B53" t="e">
-        <v>#N/A</v>
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" t="e">
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B60" t="e">
-        <v>#N/A</v>
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" t="e">
-        <v>#N/A</v>
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B65" t="e">
-        <v>#N/A</v>
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B66" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" t="e">
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B71" t="e">
-        <v>#N/A</v>
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -905,231 +2393,231 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B83" t="e">
-        <v>#N/A</v>
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>13</v>
-      </c>
-      <c r="B84" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>13</v>
-      </c>
-      <c r="B86" t="e">
-        <v>#N/A</v>
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>13</v>
-      </c>
-      <c r="B87" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B89" t="e">
-        <v>#N/A</v>
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B96" t="e">
-        <v>#N/A</v>
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" t="e">
-        <v>#N/A</v>
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B100" t="e">
-        <v>#N/A</v>
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="101">
@@ -1137,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
     </row>
     <row r="102">
@@ -1145,7 +2633,7 @@
         <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>176</v>
       </c>
     </row>
     <row r="103">
@@ -1153,7 +2641,7 @@
         <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104">
@@ -1161,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105">
@@ -1169,7 +2657,7 @@
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106">
@@ -1177,7 +2665,7 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
     </row>
     <row r="107">
@@ -1185,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
     </row>
     <row r="108">
@@ -1193,7 +2681,7 @@
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109">
@@ -1201,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110">
@@ -1209,335 +2697,335 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B120" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B125" t="e">
-        <v>#N/A</v>
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>18</v>
-      </c>
-      <c r="B127" t="e">
-        <v>#N/A</v>
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>18</v>
-      </c>
-      <c r="B128" t="e">
-        <v>#N/A</v>
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129" t="e">
-        <v>#N/A</v>
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B130" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>18</v>
-      </c>
-      <c r="B131" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B131" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" t="e">
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B133" t="e">
-        <v>#N/A</v>
+      <c r="A133" t="s">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>19</v>
-      </c>
-      <c r="B134" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B134" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>19</v>
-      </c>
-      <c r="B135" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B135" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>19</v>
-      </c>
-      <c r="B136" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B136" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B137" t="e">
-        <v>#N/A</v>
+      <c r="A137" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>20</v>
-      </c>
-      <c r="B138" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B138" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B139" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B140" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>20</v>
-      </c>
-      <c r="B141" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B142" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B143" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B144" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B146" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B147" t="e">
-        <v>#N/A</v>
+      <c r="A147" t="s">
+        <v>22</v>
+      </c>
+      <c r="B147" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B148" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B148" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>21</v>
-      </c>
-      <c r="B149" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B149" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>21</v>
-      </c>
-      <c r="B150" t="e">
-        <v>#N/A</v>
+        <v>22</v>
+      </c>
+      <c r="B150" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B151" t="e">
-        <v>#N/A</v>
+      <c r="A151" t="s">
+        <v>22</v>
+      </c>
+      <c r="B151" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="152">
@@ -1545,7 +3033,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153">
@@ -1553,7 +3041,7 @@
         <v>22</v>
       </c>
       <c r="B153" t="s">
-        <v>85</v>
+        <v>225</v>
       </c>
     </row>
     <row r="154">
@@ -1561,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
     </row>
     <row r="155">
@@ -1569,7 +3057,7 @@
         <v>22</v>
       </c>
       <c r="B155" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
     </row>
     <row r="156">
@@ -1577,7 +3065,7 @@
         <v>22</v>
       </c>
       <c r="B156" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
     </row>
     <row r="157">
@@ -1585,7 +3073,7 @@
         <v>22</v>
       </c>
       <c r="B157" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158">
@@ -1593,191 +3081,191 @@
         <v>22</v>
       </c>
       <c r="B158" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>85</v>
+        <v>232</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B161" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B162" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B163" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B164" t="s">
-        <v>85</v>
+        <v>236</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B165" t="s">
-        <v>85</v>
+        <v>237</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B166" t="s">
-        <v>85</v>
+        <v>238</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B167" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B168" t="s">
-        <v>85</v>
+        <v>240</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B169" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B170" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B171" t="s">
-        <v>85</v>
+        <v>243</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B172" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B173" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B174" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B175" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B176" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B177" t="s">
-        <v>85</v>
+        <v>247</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B178" t="e">
-        <v>#N/A</v>
+      <c r="A178" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" t="e">
-        <v>#N/A</v>
+        <v>24</v>
+      </c>
+      <c r="B179" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" t="e">
-        <v>#N/A</v>
+        <v>24</v>
+      </c>
+      <c r="B180" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B181" t="e">
-        <v>#N/A</v>
+      <c r="A181" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="182">
@@ -1785,7 +3273,7 @@
         <v>24</v>
       </c>
       <c r="B182" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
     </row>
     <row r="183">
@@ -1793,7 +3281,7 @@
         <v>24</v>
       </c>
       <c r="B183" t="s">
-        <v>86</v>
+        <v>253</v>
       </c>
     </row>
     <row r="184">
@@ -1801,7 +3289,7 @@
         <v>24</v>
       </c>
       <c r="B184" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="185">
@@ -1809,7 +3297,7 @@
         <v>24</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="186">
@@ -1817,7 +3305,7 @@
         <v>24</v>
       </c>
       <c r="B186" t="s">
-        <v>86</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187">
@@ -1825,7 +3313,7 @@
         <v>24</v>
       </c>
       <c r="B187" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
     </row>
     <row r="188">
@@ -1833,7 +3321,7 @@
         <v>24</v>
       </c>
       <c r="B188" t="s">
-        <v>86</v>
+        <v>255</v>
       </c>
     </row>
     <row r="189">
@@ -1841,7 +3329,7 @@
         <v>24</v>
       </c>
       <c r="B189" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
     </row>
     <row r="190">
@@ -1849,7 +3337,7 @@
         <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191">
@@ -1857,7 +3345,7 @@
         <v>24</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>258</v>
       </c>
     </row>
     <row r="192">
@@ -1865,7 +3353,7 @@
         <v>24</v>
       </c>
       <c r="B192" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
     </row>
     <row r="193">
@@ -1873,7 +3361,7 @@
         <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
     </row>
     <row r="194">
@@ -1881,7 +3369,7 @@
         <v>24</v>
       </c>
       <c r="B194" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
     </row>
     <row r="195">
@@ -1889,7 +3377,7 @@
         <v>24</v>
       </c>
       <c r="B195" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196">
@@ -1897,7 +3385,7 @@
         <v>24</v>
       </c>
       <c r="B196" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
     </row>
     <row r="197">
@@ -1905,7 +3393,7 @@
         <v>24</v>
       </c>
       <c r="B197" t="s">
-        <v>86</v>
+        <v>264</v>
       </c>
     </row>
     <row r="198">
@@ -1913,7 +3401,7 @@
         <v>24</v>
       </c>
       <c r="B198" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199">
@@ -1921,7 +3409,7 @@
         <v>24</v>
       </c>
       <c r="B199" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200">
@@ -1929,7 +3417,7 @@
         <v>24</v>
       </c>
       <c r="B200" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
     </row>
     <row r="201">
@@ -1937,7 +3425,7 @@
         <v>24</v>
       </c>
       <c r="B201" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202">
@@ -1945,7 +3433,7 @@
         <v>24</v>
       </c>
       <c r="B202" t="s">
-        <v>86</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203">
@@ -1953,7 +3441,7 @@
         <v>24</v>
       </c>
       <c r="B203" t="s">
-        <v>86</v>
+        <v>270</v>
       </c>
     </row>
     <row r="204">
@@ -1961,7 +3449,7 @@
         <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>86</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205">
@@ -1969,7 +3457,7 @@
         <v>24</v>
       </c>
       <c r="B205" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="206">
@@ -1977,7 +3465,7 @@
         <v>24</v>
       </c>
       <c r="B206" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
     </row>
     <row r="207">
@@ -1985,7 +3473,7 @@
         <v>24</v>
       </c>
       <c r="B207" t="s">
-        <v>86</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208">
@@ -1993,7 +3481,7 @@
         <v>24</v>
       </c>
       <c r="B208" t="s">
-        <v>86</v>
+        <v>275</v>
       </c>
     </row>
     <row r="209">
@@ -2001,7 +3489,7 @@
         <v>24</v>
       </c>
       <c r="B209" t="s">
-        <v>86</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210">
@@ -2009,7 +3497,7 @@
         <v>24</v>
       </c>
       <c r="B210" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211">
@@ -2017,7 +3505,7 @@
         <v>24</v>
       </c>
       <c r="B211" t="s">
-        <v>86</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212">
@@ -2025,7 +3513,7 @@
         <v>24</v>
       </c>
       <c r="B212" t="s">
-        <v>86</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213">
@@ -2033,7 +3521,7 @@
         <v>24</v>
       </c>
       <c r="B213" t="s">
-        <v>86</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214">
@@ -2041,7 +3529,7 @@
         <v>24</v>
       </c>
       <c r="B214" t="s">
-        <v>86</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215">
@@ -2049,7 +3537,7 @@
         <v>24</v>
       </c>
       <c r="B215" t="s">
-        <v>86</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216">
@@ -2057,7 +3545,7 @@
         <v>24</v>
       </c>
       <c r="B216" t="s">
-        <v>86</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217">
@@ -2065,7 +3553,7 @@
         <v>24</v>
       </c>
       <c r="B217" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218">
@@ -2073,7 +3561,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>86</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219">
@@ -2081,7 +3569,7 @@
         <v>24</v>
       </c>
       <c r="B219" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220">
@@ -2089,7 +3577,7 @@
         <v>24</v>
       </c>
       <c r="B220" t="s">
-        <v>86</v>
+        <v>287</v>
       </c>
     </row>
     <row r="221">
@@ -2097,7 +3585,7 @@
         <v>24</v>
       </c>
       <c r="B221" t="s">
-        <v>86</v>
+        <v>288</v>
       </c>
     </row>
     <row r="222">
@@ -2105,7 +3593,7 @@
         <v>24</v>
       </c>
       <c r="B222" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
     </row>
     <row r="223">
@@ -2113,7 +3601,7 @@
         <v>24</v>
       </c>
       <c r="B223" t="s">
-        <v>86</v>
+        <v>290</v>
       </c>
     </row>
     <row r="224">
@@ -2121,7 +3609,7 @@
         <v>24</v>
       </c>
       <c r="B224" t="s">
-        <v>86</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225">
@@ -2129,7 +3617,7 @@
         <v>24</v>
       </c>
       <c r="B225" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
     </row>
     <row r="226">
@@ -2137,7 +3625,7 @@
         <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
     </row>
     <row r="227">
@@ -2145,7 +3633,7 @@
         <v>24</v>
       </c>
       <c r="B227" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
     </row>
     <row r="228">
@@ -2153,7 +3641,7 @@
         <v>24</v>
       </c>
       <c r="B228" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
     </row>
     <row r="229">
@@ -2161,7 +3649,7 @@
         <v>24</v>
       </c>
       <c r="B229" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
     </row>
     <row r="230">
@@ -2169,7 +3657,7 @@
         <v>24</v>
       </c>
       <c r="B230" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231">
@@ -2177,7 +3665,7 @@
         <v>24</v>
       </c>
       <c r="B231" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
     </row>
     <row r="232">
@@ -2185,7 +3673,7 @@
         <v>24</v>
       </c>
       <c r="B232" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
     </row>
     <row r="233">
@@ -2193,7 +3681,7 @@
         <v>24</v>
       </c>
       <c r="B233" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
     </row>
     <row r="234">
@@ -2201,7 +3689,7 @@
         <v>24</v>
       </c>
       <c r="B234" t="s">
-        <v>86</v>
+        <v>299</v>
       </c>
     </row>
     <row r="235">
@@ -2209,7 +3697,7 @@
         <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>86</v>
+        <v>300</v>
       </c>
     </row>
     <row r="236">
@@ -2217,7 +3705,7 @@
         <v>24</v>
       </c>
       <c r="B236" t="s">
-        <v>86</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237">
@@ -2225,7 +3713,7 @@
         <v>24</v>
       </c>
       <c r="B237" t="s">
-        <v>86</v>
+        <v>302</v>
       </c>
     </row>
     <row r="238">
@@ -2233,7 +3721,7 @@
         <v>24</v>
       </c>
       <c r="B238" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
     </row>
     <row r="239">
@@ -2241,7 +3729,7 @@
         <v>24</v>
       </c>
       <c r="B239" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240">
@@ -2249,7 +3737,7 @@
         <v>24</v>
       </c>
       <c r="B240" t="s">
-        <v>86</v>
+        <v>305</v>
       </c>
     </row>
     <row r="241">
@@ -2257,7 +3745,7 @@
         <v>24</v>
       </c>
       <c r="B241" t="s">
-        <v>86</v>
+        <v>306</v>
       </c>
     </row>
     <row r="242">
@@ -2265,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="B242" t="s">
-        <v>86</v>
+        <v>307</v>
       </c>
     </row>
     <row r="243">
@@ -2273,7 +3761,7 @@
         <v>24</v>
       </c>
       <c r="B243" t="s">
-        <v>86</v>
+        <v>308</v>
       </c>
     </row>
     <row r="244">
@@ -2281,7 +3769,7 @@
         <v>24</v>
       </c>
       <c r="B244" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
     </row>
     <row r="245">
@@ -2289,7 +3777,7 @@
         <v>24</v>
       </c>
       <c r="B245" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
     </row>
     <row r="246">
@@ -2297,7 +3785,7 @@
         <v>24</v>
       </c>
       <c r="B246" t="s">
-        <v>86</v>
+        <v>311</v>
       </c>
     </row>
     <row r="247">
@@ -2305,7 +3793,7 @@
         <v>24</v>
       </c>
       <c r="B247" t="s">
-        <v>86</v>
+        <v>312</v>
       </c>
     </row>
     <row r="248">
@@ -2313,7 +3801,7 @@
         <v>24</v>
       </c>
       <c r="B248" t="s">
-        <v>86</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249">
@@ -2321,7 +3809,7 @@
         <v>24</v>
       </c>
       <c r="B249" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
     </row>
     <row r="250">
@@ -2329,7 +3817,7 @@
         <v>24</v>
       </c>
       <c r="B250" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251">
@@ -2337,7 +3825,7 @@
         <v>24</v>
       </c>
       <c r="B251" t="s">
-        <v>86</v>
+        <v>315</v>
       </c>
     </row>
     <row r="252">
@@ -2345,7 +3833,7 @@
         <v>24</v>
       </c>
       <c r="B252" t="s">
-        <v>86</v>
+        <v>316</v>
       </c>
     </row>
     <row r="253">
@@ -2353,7 +3841,7 @@
         <v>24</v>
       </c>
       <c r="B253" t="s">
-        <v>86</v>
+        <v>317</v>
       </c>
     </row>
     <row r="254">
@@ -2361,7 +3849,7 @@
         <v>24</v>
       </c>
       <c r="B254" t="s">
-        <v>86</v>
+        <v>318</v>
       </c>
     </row>
     <row r="255">
@@ -2369,7 +3857,7 @@
         <v>24</v>
       </c>
       <c r="B255" t="s">
-        <v>86</v>
+        <v>319</v>
       </c>
     </row>
     <row r="256">
@@ -2377,7 +3865,7 @@
         <v>24</v>
       </c>
       <c r="B256" t="s">
-        <v>86</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257">
@@ -2385,7 +3873,7 @@
         <v>24</v>
       </c>
       <c r="B257" t="s">
-        <v>86</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258">
@@ -2393,7 +3881,7 @@
         <v>24</v>
       </c>
       <c r="B258" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
     </row>
     <row r="259">
@@ -2401,7 +3889,7 @@
         <v>24</v>
       </c>
       <c r="B259" t="s">
-        <v>86</v>
+        <v>323</v>
       </c>
     </row>
     <row r="260">
@@ -2409,7 +3897,7 @@
         <v>24</v>
       </c>
       <c r="B260" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
     </row>
     <row r="261">
@@ -2417,7 +3905,7 @@
         <v>24</v>
       </c>
       <c r="B261" t="s">
-        <v>86</v>
+        <v>325</v>
       </c>
     </row>
     <row r="262">
@@ -2425,7 +3913,7 @@
         <v>24</v>
       </c>
       <c r="B262" t="s">
-        <v>86</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263">
@@ -2433,7 +3921,7 @@
         <v>24</v>
       </c>
       <c r="B263" t="s">
-        <v>86</v>
+        <v>327</v>
       </c>
     </row>
     <row r="264">
@@ -2441,7 +3929,7 @@
         <v>24</v>
       </c>
       <c r="B264" t="s">
-        <v>86</v>
+        <v>328</v>
       </c>
     </row>
     <row r="265">
@@ -2449,7 +3937,7 @@
         <v>24</v>
       </c>
       <c r="B265" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
     </row>
     <row r="266">
@@ -2457,7 +3945,7 @@
         <v>24</v>
       </c>
       <c r="B266" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
     </row>
     <row r="267">
@@ -2465,7 +3953,7 @@
         <v>24</v>
       </c>
       <c r="B267" t="s">
-        <v>86</v>
+        <v>331</v>
       </c>
     </row>
     <row r="268">
@@ -2473,7 +3961,7 @@
         <v>24</v>
       </c>
       <c r="B268" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
     </row>
     <row r="269">
@@ -2481,7 +3969,7 @@
         <v>24</v>
       </c>
       <c r="B269" t="s">
-        <v>86</v>
+        <v>333</v>
       </c>
     </row>
     <row r="270">
@@ -2489,7 +3977,7 @@
         <v>24</v>
       </c>
       <c r="B270" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
     </row>
     <row r="271">
@@ -2497,7 +3985,7 @@
         <v>24</v>
       </c>
       <c r="B271" t="s">
-        <v>86</v>
+        <v>335</v>
       </c>
     </row>
     <row r="272">
@@ -2505,7 +3993,7 @@
         <v>24</v>
       </c>
       <c r="B272" t="s">
-        <v>86</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273">
@@ -2513,7 +4001,7 @@
         <v>24</v>
       </c>
       <c r="B273" t="s">
-        <v>86</v>
+        <v>337</v>
       </c>
     </row>
     <row r="274">
@@ -2521,7 +4009,7 @@
         <v>24</v>
       </c>
       <c r="B274" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
     </row>
     <row r="275">
@@ -2529,7 +4017,7 @@
         <v>24</v>
       </c>
       <c r="B275" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
     </row>
     <row r="276">
@@ -2537,7 +4025,7 @@
         <v>24</v>
       </c>
       <c r="B276" t="s">
-        <v>86</v>
+        <v>339</v>
       </c>
     </row>
     <row r="277">
@@ -2545,7 +4033,7 @@
         <v>24</v>
       </c>
       <c r="B277" t="s">
-        <v>86</v>
+        <v>340</v>
       </c>
     </row>
     <row r="278">
@@ -2553,7 +4041,7 @@
         <v>24</v>
       </c>
       <c r="B278" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
     </row>
     <row r="279">
@@ -2561,7 +4049,7 @@
         <v>24</v>
       </c>
       <c r="B279" t="s">
-        <v>86</v>
+        <v>341</v>
       </c>
     </row>
     <row r="280">
@@ -2569,7 +4057,7 @@
         <v>24</v>
       </c>
       <c r="B280" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
     </row>
     <row r="281">
@@ -2577,287 +4065,287 @@
         <v>24</v>
       </c>
       <c r="B281" t="s">
-        <v>86</v>
+        <v>342</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B282" t="s">
-        <v>86</v>
+        <v>343</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>86</v>
+        <v>344</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B284" t="s">
-        <v>86</v>
+        <v>345</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B285" t="s">
-        <v>86</v>
+        <v>346</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B286" t="s">
-        <v>86</v>
+        <v>347</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B287" t="s">
-        <v>86</v>
+        <v>293</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B288" t="s">
-        <v>86</v>
+        <v>294</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B289" t="s">
-        <v>86</v>
+        <v>295</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B290" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B291" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B292" t="s">
-        <v>86</v>
+        <v>298</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B293" t="s">
-        <v>86</v>
+        <v>348</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B294" t="s">
-        <v>86</v>
+        <v>349</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B295" t="s">
-        <v>86</v>
+        <v>350</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B296" t="s">
-        <v>86</v>
+        <v>351</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B297" t="s">
-        <v>86</v>
+        <v>352</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B298" t="s">
-        <v>86</v>
+        <v>353</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B299" t="s">
-        <v>86</v>
+        <v>354</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B300" t="s">
-        <v>86</v>
+        <v>355</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>86</v>
+        <v>356</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B302" t="s">
-        <v>86</v>
+        <v>357</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B303" t="e">
-        <v>#N/A</v>
+      <c r="A303" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B304" t="s">
-        <v>87</v>
+        <v>359</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>26</v>
-      </c>
-      <c r="B305" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B305" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>26</v>
-      </c>
-      <c r="B306" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B306" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>26</v>
-      </c>
-      <c r="B307" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B307" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>26</v>
-      </c>
-      <c r="B308" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B308" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B309" t="e">
-        <v>#N/A</v>
+      <c r="A309" t="s">
+        <v>28</v>
+      </c>
+      <c r="B309" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>27</v>
-      </c>
-      <c r="B310" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B310" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>27</v>
-      </c>
-      <c r="B311" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B311" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>27</v>
-      </c>
-      <c r="B312" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B312" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>27</v>
-      </c>
-      <c r="B313" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B313" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>27</v>
-      </c>
-      <c r="B314" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B314" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>27</v>
-      </c>
-      <c r="B315" t="e">
-        <v>#N/A</v>
+        <v>28</v>
+      </c>
+      <c r="B315" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B316" t="e">
-        <v>#N/A</v>
+      <c r="A316" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="317">
@@ -2865,7 +4353,7 @@
         <v>28</v>
       </c>
       <c r="B317" t="s">
-        <v>88</v>
+        <v>365</v>
       </c>
     </row>
     <row r="318">
@@ -2873,7 +4361,7 @@
         <v>28</v>
       </c>
       <c r="B318" t="s">
-        <v>88</v>
+        <v>369</v>
       </c>
     </row>
     <row r="319">
@@ -2881,7 +4369,7 @@
         <v>28</v>
       </c>
       <c r="B319" t="s">
-        <v>88</v>
+        <v>370</v>
       </c>
     </row>
     <row r="320">
@@ -2889,7 +4377,7 @@
         <v>28</v>
       </c>
       <c r="B320" t="s">
-        <v>88</v>
+        <v>371</v>
       </c>
     </row>
     <row r="321">
@@ -2897,7 +4385,7 @@
         <v>28</v>
       </c>
       <c r="B321" t="s">
-        <v>88</v>
+        <v>372</v>
       </c>
     </row>
     <row r="322">
@@ -2905,7 +4393,7 @@
         <v>28</v>
       </c>
       <c r="B322" t="s">
-        <v>88</v>
+        <v>373</v>
       </c>
     </row>
     <row r="323">
@@ -2913,7 +4401,7 @@
         <v>28</v>
       </c>
       <c r="B323" t="s">
-        <v>88</v>
+        <v>374</v>
       </c>
     </row>
     <row r="324">
@@ -2921,7 +4409,7 @@
         <v>28</v>
       </c>
       <c r="B324" t="s">
-        <v>88</v>
+        <v>366</v>
       </c>
     </row>
     <row r="325">
@@ -2929,7 +4417,7 @@
         <v>28</v>
       </c>
       <c r="B325" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
     </row>
     <row r="326">
@@ -2937,7 +4425,7 @@
         <v>28</v>
       </c>
       <c r="B326" t="s">
-        <v>88</v>
+        <v>375</v>
       </c>
     </row>
     <row r="327">
@@ -2945,7 +4433,7 @@
         <v>28</v>
       </c>
       <c r="B327" t="s">
-        <v>88</v>
+        <v>372</v>
       </c>
     </row>
     <row r="328">
@@ -2953,7 +4441,7 @@
         <v>28</v>
       </c>
       <c r="B328" t="s">
-        <v>88</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329">
@@ -2961,7 +4449,7 @@
         <v>28</v>
       </c>
       <c r="B329" t="s">
-        <v>88</v>
+        <v>375</v>
       </c>
     </row>
     <row r="330">
@@ -2969,7 +4457,7 @@
         <v>28</v>
       </c>
       <c r="B330" t="s">
-        <v>88</v>
+        <v>372</v>
       </c>
     </row>
     <row r="331">
@@ -2977,7 +4465,7 @@
         <v>28</v>
       </c>
       <c r="B331" t="s">
-        <v>88</v>
+        <v>377</v>
       </c>
     </row>
     <row r="332">
@@ -2985,7 +4473,7 @@
         <v>28</v>
       </c>
       <c r="B332" t="s">
-        <v>88</v>
+        <v>366</v>
       </c>
     </row>
     <row r="333">
@@ -2993,7 +4481,7 @@
         <v>28</v>
       </c>
       <c r="B333" t="s">
-        <v>88</v>
+        <v>371</v>
       </c>
     </row>
     <row r="334">
@@ -3001,7 +4489,7 @@
         <v>28</v>
       </c>
       <c r="B334" t="s">
-        <v>88</v>
+        <v>378</v>
       </c>
     </row>
     <row r="335">
@@ -3009,7 +4497,7 @@
         <v>28</v>
       </c>
       <c r="B335" t="s">
-        <v>88</v>
+        <v>379</v>
       </c>
     </row>
     <row r="336">
@@ -3017,7 +4505,7 @@
         <v>28</v>
       </c>
       <c r="B336" t="s">
-        <v>88</v>
+        <v>380</v>
       </c>
     </row>
     <row r="337">
@@ -3025,7 +4513,7 @@
         <v>28</v>
       </c>
       <c r="B337" t="s">
-        <v>88</v>
+        <v>381</v>
       </c>
     </row>
     <row r="338">
@@ -3033,7 +4521,7 @@
         <v>28</v>
       </c>
       <c r="B338" t="s">
-        <v>88</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339">
@@ -3041,7 +4529,7 @@
         <v>28</v>
       </c>
       <c r="B339" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
     </row>
     <row r="340">
@@ -3049,7 +4537,7 @@
         <v>28</v>
       </c>
       <c r="B340" t="s">
-        <v>88</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341">
@@ -3057,7 +4545,7 @@
         <v>28</v>
       </c>
       <c r="B341" t="s">
-        <v>88</v>
+        <v>385</v>
       </c>
     </row>
     <row r="342">
@@ -3065,7 +4553,7 @@
         <v>28</v>
       </c>
       <c r="B342" t="s">
-        <v>88</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343">
@@ -3073,7 +4561,7 @@
         <v>28</v>
       </c>
       <c r="B343" t="s">
-        <v>88</v>
+        <v>387</v>
       </c>
     </row>
     <row r="344">
@@ -3081,7 +4569,7 @@
         <v>28</v>
       </c>
       <c r="B344" t="s">
-        <v>88</v>
+        <v>388</v>
       </c>
     </row>
     <row r="345">
@@ -3089,7 +4577,7 @@
         <v>28</v>
       </c>
       <c r="B345" t="s">
-        <v>88</v>
+        <v>389</v>
       </c>
     </row>
     <row r="346">
@@ -3097,7 +4585,7 @@
         <v>28</v>
       </c>
       <c r="B346" t="s">
-        <v>88</v>
+        <v>390</v>
       </c>
     </row>
     <row r="347">
@@ -3105,7 +4593,7 @@
         <v>28</v>
       </c>
       <c r="B347" t="s">
-        <v>88</v>
+        <v>391</v>
       </c>
     </row>
     <row r="348">
@@ -3113,7 +4601,7 @@
         <v>28</v>
       </c>
       <c r="B348" t="s">
-        <v>88</v>
+        <v>348</v>
       </c>
     </row>
     <row r="349">
@@ -3121,7 +4609,7 @@
         <v>28</v>
       </c>
       <c r="B349" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
     </row>
     <row r="350">
@@ -3129,7 +4617,7 @@
         <v>28</v>
       </c>
       <c r="B350" t="s">
-        <v>88</v>
+        <v>350</v>
       </c>
     </row>
     <row r="351">
@@ -3137,7 +4625,7 @@
         <v>28</v>
       </c>
       <c r="B351" t="s">
-        <v>88</v>
+        <v>343</v>
       </c>
     </row>
     <row r="352">
@@ -3145,7 +4633,7 @@
         <v>28</v>
       </c>
       <c r="B352" t="s">
-        <v>88</v>
+        <v>392</v>
       </c>
     </row>
     <row r="353">
@@ -3153,2423 +4641,1839 @@
         <v>28</v>
       </c>
       <c r="B353" t="s">
-        <v>88</v>
+        <v>393</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B354" t="s">
-        <v>88</v>
+        <v>394</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B355" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B356" t="s">
-        <v>88</v>
+        <v>396</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B357" t="s">
-        <v>88</v>
+        <v>397</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B358" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B359" t="s">
-        <v>88</v>
+        <v>399</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B360" t="s">
-        <v>88</v>
+        <v>400</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B361" t="s">
-        <v>88</v>
+        <v>401</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B362" t="s">
-        <v>88</v>
+        <v>402</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B363" t="s">
-        <v>88</v>
+        <v>403</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B364" t="s">
-        <v>88</v>
+        <v>404</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B365" t="s">
-        <v>88</v>
+        <v>405</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B366" t="s">
-        <v>88</v>
+        <v>406</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B367" t="s">
-        <v>88</v>
+        <v>407</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B368" t="s">
-        <v>88</v>
+        <v>408</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B369" t="s">
-        <v>88</v>
+        <v>409</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B370" t="s">
-        <v>88</v>
+        <v>410</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B371" t="s">
-        <v>88</v>
+        <v>411</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B372" t="s">
-        <v>88</v>
+        <v>412</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B373" t="s">
-        <v>88</v>
+        <v>413</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B374" t="s">
-        <v>88</v>
+        <v>414</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B375" t="s">
-        <v>88</v>
+        <v>415</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B376" t="s">
-        <v>88</v>
+        <v>416</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B377" t="s">
-        <v>88</v>
+        <v>417</v>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B378" t="e">
-        <v>#N/A</v>
+      <c r="A378" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>29</v>
-      </c>
-      <c r="B379" t="e">
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="B379" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>29</v>
-      </c>
-      <c r="B380" t="e">
-        <v>#N/A</v>
+        <v>36</v>
+      </c>
+      <c r="B380" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>29</v>
-      </c>
-      <c r="B381" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B381" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>29</v>
-      </c>
-      <c r="B382" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B382" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>29</v>
-      </c>
-      <c r="B383" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B383" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>29</v>
-      </c>
-      <c r="B384" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B384" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>29</v>
-      </c>
-      <c r="B385" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B385" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>29</v>
-      </c>
-      <c r="B386" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B386" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>29</v>
-      </c>
-      <c r="B387" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B387" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B388" t="e">
-        <v>#N/A</v>
+      <c r="A388" t="s">
+        <v>37</v>
+      </c>
+      <c r="B388" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>30</v>
-      </c>
-      <c r="B389" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B389" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>30</v>
-      </c>
-      <c r="B390" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B390" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B391" t="e">
-        <v>#N/A</v>
+      <c r="A391" t="s">
+        <v>37</v>
+      </c>
+      <c r="B391" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>31</v>
-      </c>
-      <c r="B392" t="e">
-        <v>#N/A</v>
+        <v>37</v>
+      </c>
+      <c r="B392" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>31</v>
-      </c>
-      <c r="B393" t="e">
-        <v>#N/A</v>
+        <v>38</v>
+      </c>
+      <c r="B393" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>31</v>
-      </c>
-      <c r="B394" t="e">
-        <v>#N/A</v>
+        <v>38</v>
+      </c>
+      <c r="B394" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B395" t="e">
-        <v>#N/A</v>
+      <c r="A395" t="s">
+        <v>39</v>
+      </c>
+      <c r="B395" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>32</v>
-      </c>
-      <c r="B396" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="B396" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>32</v>
-      </c>
-      <c r="B397" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="B397" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B398" t="e">
-        <v>#N/A</v>
+      <c r="A398" t="s">
+        <v>39</v>
+      </c>
+      <c r="B398" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>33</v>
-      </c>
-      <c r="B399" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="B399" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>33</v>
-      </c>
-      <c r="B400" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="B400" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B401" t="e">
-        <v>#N/A</v>
+      <c r="A401" t="s">
+        <v>39</v>
+      </c>
+      <c r="B401" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>34</v>
-      </c>
-      <c r="B402" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="B402" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>34</v>
-      </c>
-      <c r="B403" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="B403" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B404" t="e">
-        <v>#N/A</v>
+      <c r="A404" t="s">
+        <v>39</v>
+      </c>
+      <c r="B404" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>35</v>
-      </c>
-      <c r="B405" t="e">
-        <v>#N/A</v>
+        <v>39</v>
+      </c>
+      <c r="B405" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>35</v>
-      </c>
-      <c r="B406" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B406" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>35</v>
-      </c>
-      <c r="B407" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B407" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>35</v>
-      </c>
-      <c r="B408" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B408" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>35</v>
-      </c>
-      <c r="B409" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B409" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B410" t="e">
-        <v>#N/A</v>
+      <c r="A410" t="s">
+        <v>40</v>
+      </c>
+      <c r="B410" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>36</v>
-      </c>
-      <c r="B411" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B411" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>36</v>
-      </c>
-      <c r="B412" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B412" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B413" t="e">
-        <v>#N/A</v>
+      <c r="A413" t="s">
+        <v>40</v>
+      </c>
+      <c r="B413" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>37</v>
-      </c>
-      <c r="B414" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B414" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>37</v>
-      </c>
-      <c r="B415" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B415" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>37</v>
-      </c>
-      <c r="B416" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B416" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>37</v>
-      </c>
-      <c r="B417" t="e">
-        <v>#N/A</v>
+        <v>40</v>
+      </c>
+      <c r="B417" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>37</v>
-      </c>
-      <c r="B418" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B418" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>37</v>
-      </c>
-      <c r="B419" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B419" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>37</v>
-      </c>
-      <c r="B420" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B420" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>37</v>
-      </c>
-      <c r="B421" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B421" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>37</v>
-      </c>
-      <c r="B422" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B422" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>37</v>
-      </c>
-      <c r="B423" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B423" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>37</v>
-      </c>
-      <c r="B424" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B424" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>37</v>
-      </c>
-      <c r="B425" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B425" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B426" t="e">
-        <v>#N/A</v>
+      <c r="A426" t="s">
+        <v>41</v>
+      </c>
+      <c r="B426" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>38</v>
-      </c>
-      <c r="B427" t="e">
-        <v>#N/A</v>
+        <v>41</v>
+      </c>
+      <c r="B427" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>38</v>
-      </c>
-      <c r="B428" t="e">
-        <v>#N/A</v>
+        <v>42</v>
+      </c>
+      <c r="B428" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B429" t="e">
-        <v>#N/A</v>
+      <c r="A429" t="s">
+        <v>42</v>
+      </c>
+      <c r="B429" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>39</v>
-      </c>
-      <c r="B430" t="e">
-        <v>#N/A</v>
+        <v>43</v>
+      </c>
+      <c r="B430" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>39</v>
-      </c>
-      <c r="B431" t="e">
-        <v>#N/A</v>
+        <v>43</v>
+      </c>
+      <c r="B431" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>39</v>
-      </c>
-      <c r="B432" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="B432" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>39</v>
-      </c>
-      <c r="B433" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="B433" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>39</v>
-      </c>
-      <c r="B434" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="B434" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>39</v>
-      </c>
-      <c r="B435" t="e">
-        <v>#N/A</v>
+        <v>44</v>
+      </c>
+      <c r="B435" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>39</v>
-      </c>
-      <c r="B436" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="B436" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>39</v>
-      </c>
-      <c r="B437" t="e">
-        <v>#N/A</v>
+        <v>45</v>
+      </c>
+      <c r="B437" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>39</v>
-      </c>
-      <c r="B438" t="e">
-        <v>#N/A</v>
+        <v>46</v>
+      </c>
+      <c r="B438" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>39</v>
-      </c>
-      <c r="B439" t="e">
-        <v>#N/A</v>
+        <v>46</v>
+      </c>
+      <c r="B439" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>39</v>
-      </c>
-      <c r="B440" t="e">
-        <v>#N/A</v>
+        <v>46</v>
+      </c>
+      <c r="B440" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B441" t="e">
-        <v>#N/A</v>
+      <c r="A441" t="s">
+        <v>47</v>
+      </c>
+      <c r="B441" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>40</v>
-      </c>
-      <c r="B442" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B442" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>40</v>
-      </c>
-      <c r="B443" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B443" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>40</v>
-      </c>
-      <c r="B444" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B444" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>40</v>
-      </c>
-      <c r="B445" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B445" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>40</v>
-      </c>
-      <c r="B446" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B446" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>40</v>
-      </c>
-      <c r="B447" t="e">
-        <v>#N/A</v>
+        <v>47</v>
+      </c>
+      <c r="B447" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>40</v>
-      </c>
-      <c r="B448" t="e">
-        <v>#N/A</v>
+        <v>48</v>
+      </c>
+      <c r="B448" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>40</v>
-      </c>
-      <c r="B449" t="e">
-        <v>#N/A</v>
+        <v>48</v>
+      </c>
+      <c r="B449" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>40</v>
-      </c>
-      <c r="B450" t="e">
-        <v>#N/A</v>
+        <v>48</v>
+      </c>
+      <c r="B450" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>40</v>
-      </c>
-      <c r="B451" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B451" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>40</v>
-      </c>
-      <c r="B452" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B452" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>40</v>
-      </c>
-      <c r="B453" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B453" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B454" t="e">
-        <v>#N/A</v>
+      <c r="A454" t="s">
+        <v>49</v>
+      </c>
+      <c r="B454" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>41</v>
-      </c>
-      <c r="B455" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B455" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>41</v>
-      </c>
-      <c r="B456" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B456" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>41</v>
-      </c>
-      <c r="B457" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B457" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>41</v>
-      </c>
-      <c r="B458" t="e">
-        <v>#N/A</v>
+        <v>49</v>
+      </c>
+      <c r="B458" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>41</v>
-      </c>
-      <c r="B459" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B459" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>41</v>
-      </c>
-      <c r="B460" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B460" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>41</v>
-      </c>
-      <c r="B461" t="e">
-        <v>#N/A</v>
+        <v>50</v>
+      </c>
+      <c r="B461" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>41</v>
-      </c>
-      <c r="B462" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B462" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>41</v>
-      </c>
-      <c r="B463" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B463" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>41</v>
-      </c>
-      <c r="B464" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B464" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B465" t="e">
-        <v>#N/A</v>
+      <c r="A465" t="s">
+        <v>51</v>
+      </c>
+      <c r="B465" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>42</v>
-      </c>
-      <c r="B466" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B466" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>42</v>
-      </c>
-      <c r="B467" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B467" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B468" t="e">
-        <v>#N/A</v>
+      <c r="A468" t="s">
+        <v>51</v>
+      </c>
+      <c r="B468" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>43</v>
-      </c>
-      <c r="B469" t="e">
-        <v>#N/A</v>
+        <v>51</v>
+      </c>
+      <c r="B469" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>43</v>
-      </c>
-      <c r="B470" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B470" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B471" t="e">
-        <v>#N/A</v>
+      <c r="A471" t="s">
+        <v>52</v>
+      </c>
+      <c r="B471" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>44</v>
-      </c>
-      <c r="B472" t="e">
-        <v>#N/A</v>
+        <v>52</v>
+      </c>
+      <c r="B472" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>44</v>
-      </c>
-      <c r="B473" t="e">
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="B473" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>44</v>
-      </c>
-      <c r="B474" t="e">
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="B474" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>44</v>
-      </c>
-      <c r="B475" t="e">
-        <v>#N/A</v>
+        <v>53</v>
+      </c>
+      <c r="B475" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B476" t="e">
-        <v>#N/A</v>
+      <c r="A476" t="s">
+        <v>53</v>
+      </c>
+      <c r="B476" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>45</v>
-      </c>
-      <c r="B477" t="e">
-        <v>#N/A</v>
+        <v>54</v>
+      </c>
+      <c r="B477" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>45</v>
-      </c>
-      <c r="B478" t="e">
-        <v>#N/A</v>
+        <v>55</v>
+      </c>
+      <c r="B478" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B479" t="e">
-        <v>#N/A</v>
+      <c r="A479" t="s">
+        <v>55</v>
+      </c>
+      <c r="B479" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>46</v>
-      </c>
-      <c r="B480" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B480" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>46</v>
-      </c>
-      <c r="B481" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B481" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>46</v>
-      </c>
-      <c r="B482" t="e">
-        <v>#N/A</v>
+        <v>56</v>
+      </c>
+      <c r="B482" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B483" t="e">
-        <v>#N/A</v>
+      <c r="A483" t="s">
+        <v>57</v>
+      </c>
+      <c r="B483" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>47</v>
-      </c>
-      <c r="B484" t="e">
-        <v>#N/A</v>
+        <v>57</v>
+      </c>
+      <c r="B484" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>47</v>
-      </c>
-      <c r="B485" t="e">
-        <v>#N/A</v>
+        <v>57</v>
+      </c>
+      <c r="B485" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>47</v>
-      </c>
-      <c r="B486" t="e">
-        <v>#N/A</v>
+        <v>58</v>
+      </c>
+      <c r="B486" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>47</v>
-      </c>
-      <c r="B487" t="e">
-        <v>#N/A</v>
+        <v>58</v>
+      </c>
+      <c r="B487" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>47</v>
-      </c>
-      <c r="B488" t="e">
-        <v>#N/A</v>
+        <v>59</v>
+      </c>
+      <c r="B488" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>47</v>
-      </c>
-      <c r="B489" t="e">
-        <v>#N/A</v>
+        <v>59</v>
+      </c>
+      <c r="B489" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>47</v>
-      </c>
-      <c r="B490" t="e">
-        <v>#N/A</v>
+        <v>59</v>
+      </c>
+      <c r="B490" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B491" t="e">
-        <v>#N/A</v>
+      <c r="A491" t="s">
+        <v>59</v>
+      </c>
+      <c r="B491" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>48</v>
-      </c>
-      <c r="B492" t="e">
-        <v>#N/A</v>
+        <v>59</v>
+      </c>
+      <c r="B492" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>48</v>
-      </c>
-      <c r="B493" t="e">
-        <v>#N/A</v>
+        <v>59</v>
+      </c>
+      <c r="B493" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>48</v>
-      </c>
-      <c r="B494" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B494" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B495" t="e">
-        <v>#N/A</v>
+      <c r="A495" t="s">
+        <v>60</v>
+      </c>
+      <c r="B495" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>49</v>
-      </c>
-      <c r="B496" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B496" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>49</v>
-      </c>
-      <c r="B497" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B497" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>49</v>
-      </c>
-      <c r="B498" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B498" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>49</v>
-      </c>
-      <c r="B499" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B499" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>49</v>
-      </c>
-      <c r="B500" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B500" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>49</v>
-      </c>
-      <c r="B501" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B501" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>49</v>
-      </c>
-      <c r="B502" t="e">
-        <v>#N/A</v>
+        <v>61</v>
+      </c>
+      <c r="B502" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>49</v>
-      </c>
-      <c r="B503" t="e">
-        <v>#N/A</v>
+        <v>61</v>
+      </c>
+      <c r="B503" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B504" t="e">
-        <v>#N/A</v>
+      <c r="A504" t="s">
+        <v>62</v>
+      </c>
+      <c r="B504" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>50</v>
-      </c>
-      <c r="B505" t="e">
-        <v>#N/A</v>
+        <v>62</v>
+      </c>
+      <c r="B505" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>50</v>
-      </c>
-      <c r="B506" t="e">
-        <v>#N/A</v>
+        <v>62</v>
+      </c>
+      <c r="B506" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>50</v>
-      </c>
-      <c r="B507" t="e">
-        <v>#N/A</v>
+        <v>62</v>
+      </c>
+      <c r="B507" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B508" t="e">
-        <v>#N/A</v>
+      <c r="A508" t="s">
+        <v>62</v>
+      </c>
+      <c r="B508" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>51</v>
-      </c>
-      <c r="B509" t="e">
-        <v>#N/A</v>
+        <v>63</v>
+      </c>
+      <c r="B509" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>51</v>
-      </c>
-      <c r="B510" t="e">
-        <v>#N/A</v>
+        <v>63</v>
+      </c>
+      <c r="B510" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>51</v>
-      </c>
-      <c r="B511" t="e">
-        <v>#N/A</v>
+        <v>64</v>
+      </c>
+      <c r="B511" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>51</v>
-      </c>
-      <c r="B512" t="e">
-        <v>#N/A</v>
+        <v>64</v>
+      </c>
+      <c r="B512" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>51</v>
-      </c>
-      <c r="B513" t="e">
-        <v>#N/A</v>
+        <v>64</v>
+      </c>
+      <c r="B513" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>51</v>
-      </c>
-      <c r="B514" t="e">
-        <v>#N/A</v>
+        <v>65</v>
+      </c>
+      <c r="B514" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>51</v>
-      </c>
-      <c r="B515" t="e">
-        <v>#N/A</v>
+        <v>65</v>
+      </c>
+      <c r="B515" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>51</v>
-      </c>
-      <c r="B516" t="e">
-        <v>#N/A</v>
+        <v>65</v>
+      </c>
+      <c r="B516" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B517" t="e">
-        <v>#N/A</v>
+      <c r="A517" t="s">
+        <v>65</v>
+      </c>
+      <c r="B517" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>52</v>
-      </c>
-      <c r="B518" t="e">
-        <v>#N/A</v>
+        <v>65</v>
+      </c>
+      <c r="B518" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>52</v>
-      </c>
-      <c r="B519" t="e">
-        <v>#N/A</v>
+        <v>65</v>
+      </c>
+      <c r="B519" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>52</v>
-      </c>
-      <c r="B520" t="e">
-        <v>#N/A</v>
+        <v>66</v>
+      </c>
+      <c r="B520" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B521" t="e">
-        <v>#N/A</v>
+      <c r="A521" t="s">
+        <v>66</v>
+      </c>
+      <c r="B521" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>53</v>
-      </c>
-      <c r="B522" t="e">
-        <v>#N/A</v>
+        <v>66</v>
+      </c>
+      <c r="B522" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>53</v>
-      </c>
-      <c r="B523" t="e">
-        <v>#N/A</v>
+        <v>66</v>
+      </c>
+      <c r="B523" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>53</v>
-      </c>
-      <c r="B524" t="e">
-        <v>#N/A</v>
+        <v>66</v>
+      </c>
+      <c r="B524" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>53</v>
-      </c>
-      <c r="B525" t="e">
-        <v>#N/A</v>
+        <v>67</v>
+      </c>
+      <c r="B525" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B526" t="e">
-        <v>#N/A</v>
+      <c r="A526" t="s">
+        <v>67</v>
+      </c>
+      <c r="B526" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B527" t="s">
-        <v>89</v>
+        <v>544</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>55</v>
-      </c>
-      <c r="B528" t="e">
-        <v>#N/A</v>
+        <v>67</v>
+      </c>
+      <c r="B528" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>55</v>
-      </c>
-      <c r="B529" t="e">
-        <v>#N/A</v>
+        <v>67</v>
+      </c>
+      <c r="B529" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B530" t="e">
-        <v>#N/A</v>
+      <c r="A530" t="s">
+        <v>67</v>
+      </c>
+      <c r="B530" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>56</v>
-      </c>
-      <c r="B531" t="e">
-        <v>#N/A</v>
+        <v>67</v>
+      </c>
+      <c r="B531" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>56</v>
-      </c>
-      <c r="B532" t="e">
-        <v>#N/A</v>
+        <v>67</v>
+      </c>
+      <c r="B532" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>56</v>
-      </c>
-      <c r="B533" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B533" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B534" t="e">
-        <v>#N/A</v>
+      <c r="A534" t="s">
+        <v>60</v>
+      </c>
+      <c r="B534" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>57</v>
-      </c>
-      <c r="B535" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B535" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>57</v>
-      </c>
-      <c r="B536" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B536" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>57</v>
-      </c>
-      <c r="B537" t="e">
-        <v>#N/A</v>
+        <v>60</v>
+      </c>
+      <c r="B537" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B538" t="e">
-        <v>#N/A</v>
+      <c r="A538" t="s">
+        <v>68</v>
+      </c>
+      <c r="B538" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>58</v>
-      </c>
-      <c r="B539" t="e">
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="B539" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>58</v>
-      </c>
-      <c r="B540" t="e">
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="B540" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B541" t="e">
-        <v>#N/A</v>
+      <c r="A541" t="s">
+        <v>68</v>
+      </c>
+      <c r="B541" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>59</v>
-      </c>
-      <c r="B542" t="e">
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="B542" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>59</v>
-      </c>
-      <c r="B543" t="e">
-        <v>#N/A</v>
+        <v>68</v>
+      </c>
+      <c r="B543" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>59</v>
-      </c>
-      <c r="B544" t="e">
-        <v>#N/A</v>
+        <v>69</v>
+      </c>
+      <c r="B544" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>59</v>
-      </c>
-      <c r="B545" t="e">
-        <v>#N/A</v>
+        <v>69</v>
+      </c>
+      <c r="B545" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>59</v>
-      </c>
-      <c r="B546" t="e">
-        <v>#N/A</v>
+        <v>70</v>
+      </c>
+      <c r="B546" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>59</v>
-      </c>
-      <c r="B547" t="e">
-        <v>#N/A</v>
+        <v>70</v>
+      </c>
+      <c r="B547" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B548" t="e">
-        <v>#N/A</v>
+      <c r="A548" t="s">
+        <v>70</v>
+      </c>
+      <c r="B548" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>60</v>
-      </c>
-      <c r="B549" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="B549" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>60</v>
-      </c>
-      <c r="B550" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="B550" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>60</v>
-      </c>
-      <c r="B551" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="B551" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>60</v>
-      </c>
-      <c r="B552" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="B552" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>60</v>
-      </c>
-      <c r="B553" t="e">
-        <v>#N/A</v>
+        <v>71</v>
+      </c>
+      <c r="B553" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>60</v>
-      </c>
-      <c r="B554" t="e">
-        <v>#N/A</v>
+        <v>72</v>
+      </c>
+      <c r="B554" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>60</v>
-      </c>
-      <c r="B555" t="e">
-        <v>#N/A</v>
+        <v>72</v>
+      </c>
+      <c r="B555" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>60</v>
-      </c>
-      <c r="B556" t="e">
-        <v>#N/A</v>
+        <v>72</v>
+      </c>
+      <c r="B556" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B557" t="e">
-        <v>#N/A</v>
+      <c r="A557" t="s">
+        <v>72</v>
+      </c>
+      <c r="B557" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>61</v>
-      </c>
-      <c r="B558" t="e">
-        <v>#N/A</v>
+        <v>72</v>
+      </c>
+      <c r="B558" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>61</v>
-      </c>
-      <c r="B559" t="e">
-        <v>#N/A</v>
+        <v>72</v>
+      </c>
+      <c r="B559" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B560" t="e">
-        <v>#N/A</v>
+      <c r="A560" t="s">
+        <v>73</v>
+      </c>
+      <c r="B560" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>62</v>
-      </c>
-      <c r="B561" t="e">
-        <v>#N/A</v>
+        <v>73</v>
+      </c>
+      <c r="B561" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>62</v>
-      </c>
-      <c r="B562" t="e">
-        <v>#N/A</v>
+        <v>73</v>
+      </c>
+      <c r="B562" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>62</v>
-      </c>
-      <c r="B563" t="e">
-        <v>#N/A</v>
+        <v>73</v>
+      </c>
+      <c r="B563" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>62</v>
-      </c>
-      <c r="B564" t="e">
-        <v>#N/A</v>
+        <v>73</v>
+      </c>
+      <c r="B564" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>62</v>
-      </c>
-      <c r="B565" t="e">
-        <v>#N/A</v>
+        <v>74</v>
+      </c>
+      <c r="B565" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B566" t="e">
-        <v>#N/A</v>
+      <c r="A566" t="s">
+        <v>74</v>
+      </c>
+      <c r="B566" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>63</v>
-      </c>
-      <c r="B567" t="e">
-        <v>#N/A</v>
+        <v>74</v>
+      </c>
+      <c r="B567" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>63</v>
-      </c>
-      <c r="B568" t="e">
-        <v>#N/A</v>
+        <v>75</v>
+      </c>
+      <c r="B568" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B569" t="e">
-        <v>#N/A</v>
+      <c r="A569" t="s">
+        <v>75</v>
+      </c>
+      <c r="B569" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>64</v>
-      </c>
-      <c r="B570" t="e">
-        <v>#N/A</v>
+        <v>75</v>
+      </c>
+      <c r="B570" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>64</v>
-      </c>
-      <c r="B571" t="e">
-        <v>#N/A</v>
+        <v>75</v>
+      </c>
+      <c r="B571" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>64</v>
-      </c>
-      <c r="B572" t="e">
-        <v>#N/A</v>
+        <v>75</v>
+      </c>
+      <c r="B572" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B573" t="e">
-        <v>#N/A</v>
+      <c r="A573" t="s">
+        <v>75</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>65</v>
-      </c>
-      <c r="B574" t="e">
-        <v>#N/A</v>
+        <v>76</v>
+      </c>
+      <c r="B574" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>65</v>
-      </c>
-      <c r="B575" t="e">
-        <v>#N/A</v>
+        <v>76</v>
+      </c>
+      <c r="B575" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>65</v>
-      </c>
-      <c r="B576" t="e">
-        <v>#N/A</v>
+        <v>77</v>
+      </c>
+      <c r="B576" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>65</v>
-      </c>
-      <c r="B577" t="e">
-        <v>#N/A</v>
+        <v>77</v>
+      </c>
+      <c r="B577" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>65</v>
-      </c>
-      <c r="B578" t="e">
-        <v>#N/A</v>
+        <v>77</v>
+      </c>
+      <c r="B578" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>65</v>
-      </c>
-      <c r="B579" t="e">
-        <v>#N/A</v>
+        <v>77</v>
+      </c>
+      <c r="B579" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B580" t="e">
-        <v>#N/A</v>
+      <c r="A580" t="s">
+        <v>77</v>
+      </c>
+      <c r="B580" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>66</v>
-      </c>
-      <c r="B581" t="e">
-        <v>#N/A</v>
+        <v>77</v>
+      </c>
+      <c r="B581" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>66</v>
-      </c>
-      <c r="B582" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="s">
-        <v>66</v>
-      </c>
-      <c r="B583" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="s">
-        <v>66</v>
-      </c>
-      <c r="B584" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="s">
-        <v>66</v>
-      </c>
-      <c r="B585" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B586" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="s">
-        <v>67</v>
-      </c>
-      <c r="B587" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="s">
-        <v>67</v>
-      </c>
-      <c r="B588" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="s">
-        <v>67</v>
-      </c>
-      <c r="B589" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="s">
-        <v>67</v>
-      </c>
-      <c r="B590" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="s">
-        <v>67</v>
-      </c>
-      <c r="B591" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="s">
-        <v>67</v>
-      </c>
-      <c r="B592" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="s">
-        <v>67</v>
-      </c>
-      <c r="B593" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="s">
-        <v>67</v>
-      </c>
-      <c r="B594" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B595" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="s">
-        <v>60</v>
-      </c>
-      <c r="B596" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="s">
-        <v>60</v>
-      </c>
-      <c r="B597" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="s">
-        <v>60</v>
-      </c>
-      <c r="B598" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="s">
-        <v>60</v>
-      </c>
-      <c r="B599" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="s">
-        <v>60</v>
-      </c>
-      <c r="B600" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B601" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="s">
-        <v>68</v>
-      </c>
-      <c r="B602" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="s">
-        <v>68</v>
-      </c>
-      <c r="B603" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="s">
-        <v>68</v>
-      </c>
-      <c r="B604" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="s">
-        <v>68</v>
-      </c>
-      <c r="B605" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="s">
-        <v>68</v>
-      </c>
-      <c r="B606" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="s">
-        <v>68</v>
-      </c>
-      <c r="B607" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B608" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="s">
-        <v>69</v>
-      </c>
-      <c r="B609" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="s">
-        <v>69</v>
-      </c>
-      <c r="B610" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B611" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="s">
-        <v>70</v>
-      </c>
-      <c r="B612" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="s">
-        <v>70</v>
-      </c>
-      <c r="B613" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="s">
-        <v>70</v>
-      </c>
-      <c r="B614" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B615" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="s">
-        <v>71</v>
-      </c>
-      <c r="B616" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="s">
-        <v>71</v>
-      </c>
-      <c r="B617" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="s">
-        <v>71</v>
-      </c>
-      <c r="B618" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="s">
-        <v>71</v>
-      </c>
-      <c r="B619" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="s">
-        <v>71</v>
-      </c>
-      <c r="B620" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B621" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="s">
-        <v>72</v>
-      </c>
-      <c r="B622" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="s">
-        <v>72</v>
-      </c>
-      <c r="B623" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" t="s">
-        <v>72</v>
-      </c>
-      <c r="B624" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" t="s">
-        <v>72</v>
-      </c>
-      <c r="B625" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="626">
-      <c r="A626" t="s">
-        <v>72</v>
-      </c>
-      <c r="B626" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="627">
-      <c r="A627" t="s">
-        <v>72</v>
-      </c>
-      <c r="B627" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="628">
-      <c r="A628" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B628" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="629">
-      <c r="A629" t="s">
-        <v>73</v>
-      </c>
-      <c r="B629" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="630">
-      <c r="A630" t="s">
-        <v>73</v>
-      </c>
-      <c r="B630" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="631">
-      <c r="A631" t="s">
-        <v>73</v>
-      </c>
-      <c r="B631" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="632">
-      <c r="A632" t="s">
-        <v>73</v>
-      </c>
-      <c r="B632" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="633">
-      <c r="A633" t="s">
-        <v>73</v>
-      </c>
-      <c r="B633" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="634">
-      <c r="A634" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B634" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="635">
-      <c r="A635" t="s">
-        <v>74</v>
-      </c>
-      <c r="B635" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="636">
-      <c r="A636" t="s">
-        <v>74</v>
-      </c>
-      <c r="B636" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="637">
-      <c r="A637" t="s">
-        <v>74</v>
-      </c>
-      <c r="B637" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="638">
-      <c r="A638" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B638" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="639">
-      <c r="A639" t="s">
-        <v>75</v>
-      </c>
-      <c r="B639" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="640">
-      <c r="A640" t="s">
-        <v>75</v>
-      </c>
-      <c r="B640" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="641">
-      <c r="A641" t="s">
-        <v>75</v>
-      </c>
-      <c r="B641" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="642">
-      <c r="A642" t="s">
-        <v>75</v>
-      </c>
-      <c r="B642" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="643">
-      <c r="A643" t="s">
-        <v>75</v>
-      </c>
-      <c r="B643" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="644">
-      <c r="A644" t="s">
-        <v>75</v>
-      </c>
-      <c r="B644" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="645">
-      <c r="A645" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B645" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="646">
-      <c r="A646" t="s">
-        <v>76</v>
-      </c>
-      <c r="B646" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="647">
-      <c r="A647" t="s">
-        <v>76</v>
-      </c>
-      <c r="B647" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="648">
-      <c r="A648" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B648" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="s">
         <v>77</v>
       </c>
-      <c r="B649" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="s">
-        <v>77</v>
-      </c>
-      <c r="B650" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="s">
-        <v>77</v>
-      </c>
-      <c r="B651" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="s">
-        <v>77</v>
-      </c>
-      <c r="B652" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="s">
-        <v>77</v>
-      </c>
-      <c r="B653" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="s">
-        <v>77</v>
-      </c>
-      <c r="B654" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="s">
-        <v>77</v>
-      </c>
-      <c r="B655" t="e">
-        <v>#N/A</v>
+      <c r="B582" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
